--- a/Testdata/Testdata3.xlsx
+++ b/Testdata/Testdata3.xlsx
@@ -43,13 +43,13 @@
     <t>MFA</t>
   </si>
   <si>
-    <t>username='01227225</t>
-  </si>
-  <si>
     <t>password=Temenos@1234</t>
   </si>
   <si>
     <t>mfa=Test</t>
+  </si>
+  <si>
+    <t>username=01227225</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -440,13 +440,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/Testdata3.xlsx
+++ b/Testdata/Testdata3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Browsername</t>
   </si>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t>username=01227225</t>
+  </si>
+  <si>
+    <t>TC_CWB_Payee</t>
+  </si>
+  <si>
+    <t>payeename=ABC</t>
+  </si>
+  <si>
+    <t>acnumber=259298</t>
+  </si>
+  <si>
+    <t>confirmacnumber=259298</t>
   </si>
 </sst>
 </file>
@@ -96,9 +108,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -394,18 +409,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -447,6 +462,20 @@
       </c>
       <c r="F2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
